--- a/app/data/absenteeism_data_13.xlsx
+++ b/app/data/absenteeism_data_13.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48912</v>
+        <v>55965</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leonardo da Cunha</t>
+          <t>Dr. Breno Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>6890.48</v>
+        <v>4634.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88504</v>
+        <v>56263</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Sophie Teixeira</t>
+          <t>Mirella da Luz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>7451.08</v>
+        <v>3525.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92407</v>
+        <v>43094</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitória Cardoso</t>
+          <t>Dr. Thomas das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>2533.21</v>
+        <v>4828.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29694</v>
+        <v>18717</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isaac Nascimento</t>
+          <t>Benício Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>6197.98</v>
+        <v>11598.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17564</v>
+        <v>75383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Santos</t>
+          <t>Laura Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>8018.31</v>
+        <v>4089.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71584</v>
+        <v>92050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaique Martins</t>
+          <t>Melissa da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>5025.97</v>
+        <v>5015.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65302</v>
+        <v>86348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatriz Souza</t>
+          <t>Breno Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>5771.06</v>
+        <v>3857.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22542</v>
+        <v>32577</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joana Martins</t>
+          <t>Dra. Sophie Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9103.940000000001</v>
+        <v>8672.190000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19249</v>
+        <v>30843</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Raquel Farias</t>
+          <t>Felipe Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>3020.2</v>
+        <v>7355.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94118</v>
+        <v>68333</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Sales</t>
+          <t>Sarah da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>12363.77</v>
+        <v>11117.24</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_13.xlsx
+++ b/app/data/absenteeism_data_13.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97196</v>
+        <v>34573</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Santos</t>
+          <t>Nicole Silva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,82 +497,82 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>3542.7</v>
+        <v>5468.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9322</v>
+        <v>26195</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Eduarda da Rocha</t>
+          <t>Lorena Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>9126.049999999999</v>
+        <v>10783.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28052</v>
+        <v>15091</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruna Almeida</t>
+          <t>Isaac Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>6176.17</v>
+        <v>3745.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94278</v>
+        <v>75176</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Augusto Rezende</t>
+          <t>Caroline Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,51 +581,51 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10292.28</v>
+        <v>11860.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77457</v>
+        <v>60278</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Barbosa</t>
+          <t>Danilo Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>6552.51</v>
+        <v>10785.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61056</v>
+        <v>18385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno Costa</t>
+          <t>Sra. Stephany da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>5870.1</v>
+        <v>3313.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16709</v>
+        <v>10082</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduarda Gomes</t>
+          <t>Davi Lucca da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>7195.87</v>
+        <v>11773.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46824</v>
+        <v>61168</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia Ramos</t>
+          <t>Alexandre Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>2723.28</v>
+        <v>9254.620000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57613</v>
+        <v>92697</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emilly Teixeira</t>
+          <t>Pedro Miguel Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>4135.54</v>
+        <v>11809.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15037</v>
+        <v>26955</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sophia Castro</t>
+          <t>Ana Beatriz Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>8730.549999999999</v>
+        <v>7364.58</v>
       </c>
     </row>
   </sheetData>
